--- a/imageCreationExcel/back/109/109_0.xlsx
+++ b/imageCreationExcel/back/109/109_0.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6451765376978728</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8793682135819441</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.18213931554991</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_gamma0.645_sharpness0.879_equalization12.182.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.718320676908075</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9990136555344569</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2578050433191317</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_brightness3.718_contrast0.999_sharpness0.258.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9347762339673493</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8820636375394726</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5162296716102509</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_contrast0.935_gamma0.882_sharpness0.516.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28.04821058232609</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8435696784855065</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.4308113419650458</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_brightness28.048_contrast0.844_sharpness0.431.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.188366768989132</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6890903558017833</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15.01467876844753</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_8_contrast1.188_sharpness0.689_equalization15.015.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8204588678060561</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5108381119331845</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>29.73249679993071</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_contrast0.82_gamma0.511_equalization29.732.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8630621886805444</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.7250498826343749</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4.943407025527266</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast0.863_gamma0.725_equalization4.943.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.056306643661359</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9405158268081979</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.6672460145463172</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_brightness6.056_contrast0.941_gamma0.667.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.82096123981156</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.190662695012496</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5658210833414301</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_brightness13.821_contrast1.191_gamma0.566.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.018771506823548</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7601250813915312</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18.19933975957032</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_8_contrast1.019_gamma0.76_equalization18.199.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.066690854579631</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9552080017272602</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3688801584775903</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_I_contrast1.067_gamma0.955_sharpness0.369.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9683403661482299</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7169005480829599</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.36973026406724</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_3_contrast0.968_sharpness0.717_equalization9.37.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.877823910368393</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9866452568713551</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3761546545883966</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_brightness2.878_contrast0.987_sharpness0.376.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.823818423266268</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.02388946634003</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8947781653619837</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_contrast0.824_gamma1.024_sharpness0.895.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,15 +1083,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27.99401971597547</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.002086395496479</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.3472606031653</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_brightness27.994_gamma1.002_sharpness0.347.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8854071599315434</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6494654841984717</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7447825311278046</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_T_contrast0.885_gamma0.649_sharpness0.745.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.58165367271863</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9336647450671414</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.093880689027627</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_brightness9.582_contrast0.934_gamma1.094.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11.85297528500384</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.197371194153094</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.1693398496276657</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_brightness11.853_contrast1.197_sharpness0.169.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.196036069768975</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8545650859096284</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>21.70938698347542</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_E_contrast1.196_gamma0.855_equalization21.709.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14.10791851821561</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.00257852152829</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.3648797378812833</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_brightness14.108_gamma1.003_sharpness0.365.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.034931268555145</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6537267271306255</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>23.31963587663571</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_contrast1.035_gamma0.654_equalization23.32.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26.39951823541294</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.12902419833041</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.013156300065449</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_brightness26.4_contrast1.129_gamma1.013.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8827208721023018</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5465984007918299</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13.5435217502996</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_I_contrast0.883_gamma0.547_equalization13.544.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8861540525886415</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9733277357937981</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6451528355277875</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_contrast0.886_gamma0.973_sharpness0.645.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.142559705126236</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.409183885845557</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>14.37525186644394</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast1.143_sharpness0.409_equalization14.375.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10.13571139427433</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8571396148408121</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.7704875956708104</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_0_brightness10.136_contrast0.857_gamma0.77.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,15 +1587,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9587870527084997</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.2339129935525142</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>20.86594288832255</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_contrast0.959_sharpness0.234_equalization20.866.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,24 +1620,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.6365160555796192</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.4451187888790445</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25.80589589062545</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_9_gamma0.637_sharpness0.445_equalization25.806.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12.24750689408863</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.000139784883766</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.4228547969167346</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_brightness12.248_contrast1.0_sharpness0.423.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>26.41514023287755</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6580662918767637</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5004376672181168</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_S_brightness26.415_gamma0.658_sharpness0.5.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14.4331942242268</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.580195451790556</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.2380493327963787</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_brightness14.433_gamma0.58_sharpness0.238.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21.89698942111253</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.156828594972634</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.9086703688590438</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_brightness21.897_contrast1.157_gamma0.909.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9174478555237858</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8307431035856003</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.3775436876177413</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_7_contrast0.917_gamma0.831_sharpness0.378.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.898987577793951</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5552615229889072</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>13.65562318340323</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_contrast0.899_sharpness0.555_equalization13.656.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1919,34 +1919,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8630582547161501</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7201644207887988</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>27.326494548082</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_3_gamma0.863_sharpness0.72_equalization27.326.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9783512320226018</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.4766946218339216</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17.37316395201079</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_contrast0.978_sharpness0.477_equalization17.373.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8426265197476162</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.082496307540316</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.480732607922769</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_contrast0.843_gamma1.082_sharpness0.481.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9320673142470886</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8585840547482851</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.7182301442804702</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_contrast0.932_gamma0.859_sharpness0.718.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.193505474185254</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8642748015964564</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>27.79745982409684</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_1_contrast1.194_gamma0.864_equalization27.797.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8326376590035138</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.083859162721522</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>25.62884435989996</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_contrast0.833_gamma1.084_equalization25.629.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.071147932389457</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9516195817705282</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>14.23145029232576</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_I_gamma1.071_sharpness0.952_equalization14.231.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,30 +2217,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.01145166789444</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.2241164696663101</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>19.15253995786245</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_contrast1.011_sharpness0.224_equalization19.153.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.929936150185053</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.097448286497325</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.6750928390811543</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_brightness4.93_contrast1.097_gamma0.675.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17.51117922915958</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.050689813338459</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.5007923444168134</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness17.511_contrast1.051_sharpness0.501.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9098529313640452</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1689411871547728</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>28.33152943214766</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_1_contrast0.91_sharpness0.169_equalization28.332.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.034276843151631</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9911714919247321</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9.407224730050427</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_8_contrast1.034_gamma0.991_equalization9.407.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>24.55093528509437</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.045966338849024</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.005233697678159914</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_T_brightness24.551_gamma1.046_sharpness0.005.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8.327172054317108</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.080797088651344</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.3097251741896433</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_brightness8.327_contrast1.081_sharpness0.31.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
